--- a/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Документы\Рабочая папка\ТЗ программа подбора TRV, RDT\templates\Новые RDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA21F5-F646-4340-BFDE-5697AB1BE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="11265"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -200,7 +201,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,6 +423,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -443,9 +486,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -454,45 +494,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,24 +829,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
-    <col min="8" max="9" width="9.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8" style="3" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
@@ -859,12 +860,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -879,19 +880,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -906,19 +907,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -933,19 +934,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="39"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -985,12 +986,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1012,19 +1013,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1039,19 +1040,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1066,18 +1067,18 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
       <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="4"/>
@@ -1093,19 +1094,19 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
       <c r="L11" s="2"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1120,18 +1121,18 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
       <c r="K12" s="15"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4"/>
@@ -1147,18 +1148,18 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="15" t="s">
         <v>10</v>
       </c>
@@ -1176,19 +1177,19 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1203,18 +1204,18 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
       <c r="K15" s="15" t="s">
         <v>10</v>
       </c>
@@ -1232,18 +1233,18 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
       <c r="K16" s="15" t="s">
         <v>10</v>
       </c>
@@ -1261,18 +1262,18 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
       <c r="K17" s="15"/>
       <c r="L17" s="2"/>
       <c r="M17" s="4"/>
@@ -1288,18 +1289,18 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
       <c r="K18" s="15"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1340,12 +1341,12 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1367,19 +1368,19 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1394,19 +1395,19 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1455,10 +1456,10 @@
       <c r="C24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="39"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="9" t="s">
         <v>28</v>
       </c>
@@ -1468,10 +1469,10 @@
       <c r="H24" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="39"/>
+      <c r="J24" s="25"/>
       <c r="K24" s="9" t="s">
         <v>2</v>
       </c>
@@ -1492,13 +1493,13 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
       <c r="K25" s="9"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1514,19 +1515,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1541,19 +1542,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1595,10 +1596,10 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="34"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="13"/>
       <c r="G29" s="8" t="s">
         <v>11</v>
@@ -1623,10 +1624,10 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="34"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="13"/>
       <c r="G30" s="8" t="s">
         <v>11</v>
@@ -1651,10 +1652,10 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="34"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="13"/>
       <c r="G31" s="8" t="s">
         <v>11</v>
@@ -1679,10 +1680,10 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="35" t="s">
+      <c r="D32" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="14"/>
       <c r="G32" s="8" t="s">
         <v>15</v>
@@ -2565,7 +2566,33 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:K21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="E22:K22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -2581,33 +2608,7 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A18:H18"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="A11:K11"/>
     <mergeCell ref="A12:H12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="E22:K22"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA21F5-F646-4340-BFDE-5697AB1BE288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC66FF-9B1B-4F6D-A4A8-82A4E242A77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Номинальный диаметр DN, мм</t>
   </si>
@@ -196,6 +196,12 @@
 - медная импульсная трубка - 2 шт.;
 - латунная гайка - 4 шт.;
 - латунный штуцер - 2 шт.</t>
+  </si>
+  <si>
+    <t>Расчетный диаметр:</t>
+  </si>
+  <si>
+    <t>Расчетная пропускная способность:</t>
   </si>
 </sst>
 </file>
@@ -380,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -459,12 +465,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -477,15 +489,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -493,6 +499,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -833,21 +842,22 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="3" customWidth="1"/>
     <col min="12" max="23" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -860,12 +870,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -907,19 +917,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="36"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -934,10 +944,10 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -986,12 +996,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1013,10 +1023,10 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="22"/>
       <c r="D8" s="22"/>
       <c r="E8" s="22"/>
@@ -1341,12 +1351,12 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1374,13 +1384,15 @@
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="30"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1401,13 +1413,15 @@
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2565,7 +2579,7 @@
       <c r="W67" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="47">
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A9:K9"/>
@@ -2577,10 +2591,12 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:K8"/>
     <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:K21"/>
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="A10:H10"/>
@@ -2592,7 +2608,9 @@
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A26:K26"/>
     <mergeCell ref="A27:K27"/>
-    <mergeCell ref="E22:K22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>

--- a/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
+++ b/TeplosilaWeb/Content/templates/templateRDT-B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pge27\OneDrive\Рабочий стол\TeploSilaWeb\TeplosilaWeb\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BC66FF-9B1B-4F6D-A4A8-82A4E242A77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8C7A22-E835-4905-AFA1-8A636253D449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -386,16 +386,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -411,14 +408,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,30 +420,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,7 +453,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -474,7 +465,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,48 +514,49 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>547688</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>10835</xdr:rowOff>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>780526</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1">
+        <xdr:cNvPr id="3" name="Рисунок 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BBC5C08-907D-47A8-9069-692CDA277FF3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
+        <a:srcRect l="1996" t="12024" r="2202"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1"/>
-          <a:ext cx="6326188" cy="804584"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6772275" cy="780526"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -839,10 +831,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:K22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,12 +865,12 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="31"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -890,19 +885,19 @@
       <c r="W2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -917,19 +912,19 @@
       <c r="W3" s="2"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -944,19 +939,19 @@
       <c r="W4" s="2"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="39"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -971,8 +966,8 @@
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -996,12 +991,12 @@
       <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1023,19 +1018,19 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1050,19 +1045,19 @@
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1077,19 +1072,19 @@
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="15"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="2"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -1104,19 +1099,19 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
       <c r="L11" s="2"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -1131,19 +1126,19 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="15"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="2"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -1158,19 +1153,19 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="15" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L13" s="2"/>
@@ -1187,19 +1182,19 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="2"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -1214,19 +1209,19 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="15" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L15" s="2"/>
@@ -1243,19 +1238,19 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="15" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L16" s="2"/>
@@ -1272,19 +1267,19 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="15"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="2"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1299,19 +1294,19 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="15"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1326,16 +1321,16 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1351,12 +1346,12 @@
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1378,21 +1373,21 @@
       <c r="W20" s="2"/>
     </row>
     <row r="21" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="16" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1407,21 +1402,21 @@
       <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="16" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -1461,33 +1456,33 @@
       <c r="W23" s="2"/>
     </row>
     <row r="24" spans="1:23" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="9" t="s">
+      <c r="J24" s="22"/>
+      <c r="K24" s="8" t="s">
         <v>2</v>
       </c>
       <c r="L24" s="2"/>
@@ -1504,17 +1499,17 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="1:23" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="8"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -1529,19 +1524,19 @@
       <c r="W25" s="2"/>
     </row>
     <row r="26" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -1556,19 +1551,19 @@
       <c r="W26" s="2"/>
     </row>
     <row r="27" spans="1:23" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -1585,11 +1580,11 @@
     <row r="28" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1610,12 +1605,12 @@
     <row r="29" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="8" t="s">
+      <c r="E29" s="14"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H29" s="3"/>
@@ -1638,12 +1633,12 @@
     <row r="30" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="8" t="s">
+      <c r="E30" s="14"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H30" s="3"/>
@@ -1666,12 +1661,12 @@
     <row r="31" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="8" t="s">
+      <c r="E31" s="14"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H31" s="3"/>
@@ -1694,12 +1689,12 @@
     <row r="32" spans="1:23" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="8" t="s">
+      <c r="E32" s="16"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="3"/>
@@ -1722,8 +1717,8 @@
     <row r="33" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -2629,7 +2624,7 @@
     <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>